--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>266213.5288929717</v>
+        <v>265275.4337268758</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072686</v>
+        <v>10911602.29072687</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132057</v>
+        <v>7937223.370132059</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>66.59358938417571</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -789,19 +789,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -856,19 +856,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,19 +893,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>33.80371536444976</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,19 +972,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>85.31372784089211</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1072,49 +1072,49 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>231.8635835046283</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516672</v>
+        <v>227.7664834517763</v>
       </c>
       <c r="Y8" t="n">
         <v>263.2420339516672</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>192.9488427544132</v>
+        <v>232.1886443080234</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1309,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>51.96190712986807</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,16 +1367,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>218.3734398702018</v>
+        <v>217.2380149098806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -1415,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>15.1823972622756</v>
       </c>
       <c r="F13" t="n">
-        <v>134.6751203255734</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1546,10 +1546,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>401.7519418729551</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>42.89605674225509</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1701,10 +1701,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1746,7 +1746,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1768,25 +1768,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>62.56386682245585</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>9.275596830496628</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,16 +1807,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.3734398702014</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,10 +1853,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1889,10 +1889,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,13 +1904,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>91.16747085304316</v>
       </c>
     </row>
     <row r="18">
@@ -1935,13 +1935,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5310119231958</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>190.2713935802968</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,22 +2081,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>292.0997413791844</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>296.7607853996629</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,25 +2242,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>70.11928264603833</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>39.02143253644981</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,19 +2315,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>381.6269365471937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.801690848279645</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2412,7 +2412,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H24" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
         <v>61.42221998250818</v>
@@ -2527,19 +2527,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>128.7835007017899</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2570,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>126.9458036167326</v>
+        <v>15.8007188394479</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2637,7 +2637,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -2682,7 +2682,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2764,13 +2764,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>147.3596012393434</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2837,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>102.7881303645189</v>
+        <v>201.6462734508707</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.08390849687497</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.31590541686196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3029,25 +3029,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>120.4202303617004</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>33.24631426695492</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -3083,13 +3083,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3156,7 +3156,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T33" t="n">
         <v>196.8897623984489</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,10 +3205,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,19 +3229,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>213.9154470216035</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3269,22 +3269,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>353.5260290206124</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -3326,10 +3326,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>47.40419526769258</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554011</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3430,22 +3430,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>190.2713935802969</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3506,22 +3506,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>107.4792634994638</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>297.7970922341042</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,25 +3548,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,22 +3658,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>78.40333552909894</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>52.71481492008173</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,10 +3740,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>334.5817096732204</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>153.0555388225931</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>190.271393580297</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>269.513456948084</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4022,28 +4022,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>42.52353645864926</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4119,7 +4119,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034777</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4135,19 +4135,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4186,16 +4186,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.9479264102623</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4367,13 +4367,13 @@
         <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>420.237879300003</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>245.784850018876</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4410,22 +4410,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4437,22 +4437,22 @@
         <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>562.4161926976942</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>327.2640844659515</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W3" t="n">
-        <v>83.81530782185143</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X3" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4504,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>475.3318284112885</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y5" t="n">
-        <v>752.9257720901863</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>588.0815197256143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>413.6284904444873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>264.694080783236</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>105.4566257777805</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
         <v>19.28114311021272</v>
@@ -4650,19 +4650,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>756.2968567456824</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4762,13 +4762,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.05936271613337</v>
+        <v>556.9999364092509</v>
       </c>
       <c r="C8" t="n">
-        <v>21.05936271613337</v>
+        <v>556.9999364092509</v>
       </c>
       <c r="D8" t="n">
-        <v>21.05936271613337</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="E8" t="n">
-        <v>21.05936271613337</v>
+        <v>291.0988920136275</v>
       </c>
       <c r="F8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613337</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613337</v>
@@ -4841,13 +4841,13 @@
         <v>1052.968135806669</v>
       </c>
       <c r="W8" t="n">
-        <v>787.0670914110452</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="X8" t="n">
-        <v>521.1660470154218</v>
+        <v>822.9009808048744</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.2650026197983</v>
+        <v>556.9999364092509</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>261.6628906109961</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231466</v>
+        <v>264.2940185443792</v>
       </c>
       <c r="N9" t="n">
-        <v>542.8187885312782</v>
+        <v>524.9036321565297</v>
       </c>
       <c r="O9" t="n">
-        <v>791.5722026152405</v>
+        <v>785.316696249022</v>
       </c>
       <c r="P9" t="n">
-        <v>983.5735772933393</v>
+        <v>977.3180709271207</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806669</v>
@@ -4917,16 +4917,16 @@
         <v>1052.968135806669</v>
       </c>
       <c r="V9" t="n">
-        <v>858.0703148426149</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="W9" t="n">
-        <v>858.0703148426149</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="X9" t="n">
-        <v>650.2188146370821</v>
+        <v>818.4341516571501</v>
       </c>
       <c r="Y9" t="n">
-        <v>650.2188146370821</v>
+        <v>818.4341516571501</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I10" t="n">
-        <v>130.0221525919995</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J10" t="n">
-        <v>38.68360465423041</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K10" t="n">
         <v>21.05936271613337</v>
@@ -4984,28 +4984,28 @@
         <v>182.5089274706541</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706541</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2476.569858826099</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H11" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2014.892857925728</v>
       </c>
       <c r="Y11" t="n">
-        <v>2697.149091018222</v>
+        <v>1624.753525949916</v>
       </c>
     </row>
     <row r="12">
@@ -5094,67 +5094,67 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5163,7 +5163,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="13">
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>698.7120650600561</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E13" t="n">
-        <v>698.7120650600561</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837194</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220518</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H13" t="n">
         <v>235.9284171545819</v>
@@ -5197,52 +5197,52 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1562.681172365833</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="C14" t="n">
-        <v>1193.718655425422</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="D14" t="n">
-        <v>835.4529568186713</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="E14" t="n">
-        <v>835.4529568186713</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="F14" t="n">
-        <v>424.4670520290637</v>
+        <v>940.4137200851862</v>
       </c>
       <c r="G14" t="n">
-        <v>424.4670520290637</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>97.27233206506656</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5288,7 +5288,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5303,25 +5303,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2267.209817970484</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V14" t="n">
-        <v>1936.146930626913</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W14" t="n">
-        <v>1936.146930626913</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X14" t="n">
-        <v>1562.681172365833</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y14" t="n">
-        <v>1562.681172365833</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,25 +5355,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>108.9687959810045</v>
+        <v>664.9331591332467</v>
       </c>
       <c r="E16" t="n">
-        <v>108.9687959810045</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="F16" t="n">
-        <v>108.9687959810045</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G16" t="n">
-        <v>108.9687959810045</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H16" t="n">
-        <v>108.9687959810045</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5440,46 +5440,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y16" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>1647.620145934678</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>1278.657628994267</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>920.3919303875161</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
         <v>534.603677789272</v>
@@ -5510,16 +5510,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V17" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W17" t="n">
-        <v>2697.149091018222</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X17" t="n">
-        <v>2697.149091018222</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y17" t="n">
-        <v>2697.149091018222</v>
+        <v>1647.620145934678</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
         <v>221.4284102424006</v>
@@ -5589,52 +5589,52 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641985</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598704</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M18" t="n">
         <v>1194.968834417901</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517452</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537796</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152625</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V19" t="n">
-        <v>246.1363086691491</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W19" t="n">
-        <v>246.1363086691491</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1061.976198199964</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C20" t="n">
-        <v>1061.976198199964</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D20" t="n">
-        <v>766.9259543826058</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>764.6872557005406</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>353.7013509109331</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5768,34 +5768,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>1838.715370239897</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y20" t="n">
-        <v>1448.576038264086</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5838,34 +5838,34 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U21" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V21" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W21" t="n">
         <v>1572.325111207638</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="C22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="D22" t="n">
-        <v>578.0123447940985</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="E22" t="n">
-        <v>430.0992512117053</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="F22" t="n">
-        <v>359.2716929833838</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G22" t="n">
-        <v>190.2718927217162</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="U22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="V22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="W22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="X22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
       <c r="Y22" t="n">
-        <v>728.1289842064342</v>
+        <v>540.5667372199621</v>
       </c>
     </row>
     <row r="23">
@@ -5963,16 +5963,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1577.945354755378</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C23" t="n">
-        <v>1208.982837814967</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="D23" t="n">
-        <v>850.7171392082162</v>
+        <v>825.2129885066831</v>
       </c>
       <c r="E23" t="n">
-        <v>464.928886609972</v>
+        <v>439.4247359084389</v>
       </c>
       <c r="F23" t="n">
         <v>53.94298182036445</v>
@@ -5987,19 +5987,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
@@ -6020,19 +6020,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U23" t="n">
-        <v>2694.319100262384</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V23" t="n">
-        <v>2694.319100262384</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W23" t="n">
-        <v>2341.55044499227</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X23" t="n">
-        <v>1968.08468673119</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y23" t="n">
-        <v>1577.945354755378</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="24">
@@ -6048,16 +6048,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F24" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
@@ -6066,31 +6066,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
         <v>2488.762748073963</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>500.820796875036</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>308.6274700262513</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V25" t="n">
-        <v>53.94298182036445</v>
+        <v>2442.464602812336</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036445</v>
+        <v>2153.047432775375</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>833.8914035503838</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="C26" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="D26" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2568.921006556876</v>
+        <v>2626.160079488668</v>
       </c>
       <c r="U26" t="n">
-        <v>2315.159221194968</v>
+        <v>2626.160079488668</v>
       </c>
       <c r="V26" t="n">
-        <v>1984.096333851397</v>
+        <v>2295.097192145097</v>
       </c>
       <c r="W26" t="n">
-        <v>1984.096333851397</v>
+        <v>1942.328536874983</v>
       </c>
       <c r="X26" t="n">
-        <v>1610.630575590317</v>
+        <v>1568.862778613903</v>
       </c>
       <c r="Y26" t="n">
-        <v>1220.491243614505</v>
+        <v>1178.723446638091</v>
       </c>
     </row>
     <row r="27">
@@ -6279,10 +6279,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
         <v>665.1105362747051</v>
@@ -6300,16 +6300,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6324,22 +6324,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.929004554789</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.992821626882</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.876182214546</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U28" t="n">
-        <v>2697.149091018222</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V28" t="n">
-        <v>2697.149091018222</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W28" t="n">
-        <v>2697.149091018222</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X28" t="n">
-        <v>2697.149091018222</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.577469385029</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="29">
@@ -6461,10 +6461,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224079</v>
@@ -6485,16 +6485,16 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2593.322696710628</v>
+        <v>2262.259809367057</v>
       </c>
       <c r="U29" t="n">
-        <v>2593.322696710628</v>
+        <v>2262.259809367057</v>
       </c>
       <c r="V29" t="n">
         <v>2262.259809367057</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2489.929004554789</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C31" t="n">
-        <v>2320.992821626882</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D31" t="n">
-        <v>2170.876182214547</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E31" t="n">
         <v>2022.963088632153</v>
@@ -6643,28 +6643,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018223</v>
+        <v>2628.377466273905</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018223</v>
+        <v>2628.377466273905</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018223</v>
+        <v>2401.069278942507</v>
       </c>
       <c r="U31" t="n">
-        <v>2697.149091018223</v>
+        <v>2401.069278942507</v>
       </c>
       <c r="V31" t="n">
-        <v>2697.149091018223</v>
+        <v>2401.069278942507</v>
       </c>
       <c r="W31" t="n">
-        <v>2697.149091018223</v>
+        <v>2401.069278942507</v>
       </c>
       <c r="X31" t="n">
-        <v>2697.149091018223</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="Y31" t="n">
-        <v>2671.577469385029</v>
+        <v>2173.079728044489</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="C32" t="n">
-        <v>1215.960741127172</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="D32" t="n">
-        <v>857.6950425204218</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="E32" t="n">
-        <v>471.9067899221776</v>
+        <v>1331.724011000732</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>920.7381062111247</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>502.7742981093115</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>175.5795781453144</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2663.566955395036</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2487.389467709206</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T32" t="n">
-        <v>2268.754800681269</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U32" t="n">
-        <v>2268.754800681269</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V32" t="n">
-        <v>1937.691913337698</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W32" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X32" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y32" t="n">
-        <v>1584.923258067584</v>
+        <v>1717.512263598976</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6795,13 +6795,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S33" t="n">
         <v>2488.762748073964</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H34" t="n">
-        <v>108.9687959810045</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I34" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K34" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q34" t="n">
-        <v>698.7120650600561</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R34" t="n">
-        <v>550.5654064942401</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S34" t="n">
-        <v>336.2769833124028</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T34" t="n">
-        <v>108.9687959810045</v>
+        <v>2481.072881905492</v>
       </c>
       <c r="U34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="V34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="W34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="X34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y34" t="n">
-        <v>108.9687959810045</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1261.831893336434</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="C35" t="n">
-        <v>892.8693763960225</v>
+        <v>1567.184413686502</v>
       </c>
       <c r="D35" t="n">
-        <v>534.603677789272</v>
+        <v>1567.184413686502</v>
       </c>
       <c r="E35" t="n">
-        <v>534.603677789272</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F35" t="n">
-        <v>534.603677789272</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6941,13 +6941,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6959,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S35" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2247.308246834949</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U35" t="n">
-        <v>1993.546461473041</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V35" t="n">
-        <v>1662.48357412947</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W35" t="n">
-        <v>1309.714918859356</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="X35" t="n">
-        <v>1261.831893336434</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="Y35" t="n">
-        <v>1261.831893336434</v>
+        <v>1936.146930626914</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E36" t="n">
         <v>505.8730812692495</v>
@@ -7017,22 +7017,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7059,7 +7059,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036446</v>
@@ -7099,46 +7099,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M37" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T37" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U37" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="38">
@@ -7148,31 +7148,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1275.524362591492</v>
+        <v>2091.914583926164</v>
       </c>
       <c r="C38" t="n">
-        <v>906.5618456510801</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="D38" t="n">
-        <v>548.2961470443297</v>
+        <v>1722.952066985752</v>
       </c>
       <c r="E38" t="n">
-        <v>162.5078944460855</v>
+        <v>1337.163814387508</v>
       </c>
       <c r="F38" t="n">
-        <v>162.5078944460855</v>
+        <v>926.1779095979002</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>508.2141014960871</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
         <v>463.9616490733129</v>
@@ -7196,28 +7196,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V38" t="n">
-        <v>2388.358616186807</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W38" t="n">
-        <v>2035.589960916693</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X38" t="n">
-        <v>1662.124202655614</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="Y38" t="n">
-        <v>1662.124202655614</v>
+        <v>2478.514423990286</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M39" t="n">
         <v>1194.968834417902</v>
@@ -7296,7 +7296,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>257.3069090307625</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C40" t="n">
-        <v>257.3069090307625</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D40" t="n">
-        <v>107.1902696184268</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E40" t="n">
-        <v>107.1902696184268</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F40" t="n">
-        <v>107.1902696184268</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G40" t="n">
         <v>53.94298182036446</v>
@@ -7336,46 +7336,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M40" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.9553738610023</v>
+        <v>280.0282177315061</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.944160717209</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="D41" t="n">
-        <v>1268.68094731003</v>
+        <v>1188.678462110459</v>
       </c>
       <c r="E41" t="n">
-        <v>882.8926947117852</v>
+        <v>802.8902095122148</v>
       </c>
       <c r="F41" t="n">
-        <v>471.9067899221776</v>
+        <v>391.9043047226073</v>
       </c>
       <c r="G41" t="n">
         <v>53.94298182036446</v>
@@ -7412,43 +7412,43 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X41" t="n">
         <v>2323.683332757143</v>
@@ -7488,19 +7488,19 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>391.878965009939</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
         <v>53.94298182036446</v>
@@ -7573,46 +7573,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M43" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S43" t="n">
-        <v>573.5274298401787</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>573.5274298401787</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U43" t="n">
-        <v>573.5274298401787</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W43" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X43" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>573.5274298401787</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>797.9969330253592</v>
       </c>
       <c r="D44" t="n">
-        <v>850.7171392082163</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F44" t="n">
         <v>53.94298182036446</v>
@@ -7670,28 +7670,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1209.91251709572</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1166.959449965771</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
@@ -7734,16 +7734,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2535.585528987655</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C46" t="n">
-        <v>2366.649346059748</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D46" t="n">
-        <v>2216.532706647412</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E46" t="n">
-        <v>2068.619613065019</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F46" t="n">
-        <v>2068.619613065019</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G46" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H46" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I46" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J46" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K46" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>2535.585528987655</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>2535.585528987655</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V46" t="n">
-        <v>2535.585528987655</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W46" t="n">
-        <v>2535.585528987655</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X46" t="n">
-        <v>2535.585528987655</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y46" t="n">
-        <v>2535.585528987655</v>
+        <v>184.027325963587</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8298,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>122.1609165114201</v>
       </c>
       <c r="K9" t="n">
         <v>129.8481964236086</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3760678736855</v>
+        <v>132.2494453409331</v>
       </c>
       <c r="N9" t="n">
-        <v>152.0955346167996</v>
+        <v>394.5837460350004</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K39" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,19 +22556,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,16 +22623,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>80.85147618046304</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22677,19 +22677,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>141.8841621389552</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22744,19 +22744,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,19 +22781,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.9301262990308</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -22802,7 +22802,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -22832,7 +22832,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22841,7 +22841,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22860,19 +22860,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>59.75548455249177</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -22914,19 +22914,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>150.1070334262686</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -23002,7 +23002,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23018,19 +23018,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>150.8702581588523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901579</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900443</v>
       </c>
       <c r="G8" t="n">
         <v>415.2102214038314</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23081,10 +23081,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>85.99893476574584</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268019</v>
+        <v>141.9646172266927</v>
       </c>
       <c r="Y8" t="n">
         <v>122.9959047043864</v>
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -23157,13 +23157,13 @@
         <v>225.9381254702172</v>
       </c>
       <c r="V9" t="n">
-        <v>39.8517443950121</v>
+        <v>0.6119428414018842</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23197,13 +23197,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I10" t="n">
-        <v>102.2405633723427</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23224,7 @@
         <v>82.68702246598912</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366963</v>
+        <v>15.59235192972082</v>
       </c>
       <c r="S10" t="n">
         <v>223.2933741908972</v>
@@ -23255,16 +23255,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>164.3604017932788</v>
+        <v>165.4958267536</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23312,7 +23312,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,13 +23419,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>131.2515653842936</v>
       </c>
       <c r="F13" t="n">
-        <v>10.74592769735787</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23458,10 +23458,10 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>12.03222814783987</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>109.0352595026062</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,10 +23540,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,25 +23656,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>86.05160619575651</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,16 +23695,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>164.3604017932792</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23741,10 +23741,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23777,10 +23777,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,13 +23792,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>295.0704678030104</v>
       </c>
     </row>
     <row r="18">
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,28 +23932,28 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>35.43826180874038</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,22 +23969,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>62.58330024149853</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>117.0233846211321</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24130,25 +24130,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>75.30176537689292</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>186.0136729216345</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24203,19 +24203,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>25.24910919451776</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
         <v>174.4157128089715</v>
@@ -24260,7 +24260,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>248.4224766600097</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24385,7 +24385,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>96.01048066168096</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724728</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24458,7 +24458,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24488,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>89.50251674092522</v>
+        <v>200.6476015182099</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24622,7 +24622,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>104.7780420844846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>193.2687479352328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24725,19 +24725,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>113.6601899931388</v>
+        <v>14.80204690678713</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24859,7 +24859,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>78.58128348328286</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24901,10 +24901,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>193.2687479352328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24917,25 +24917,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>31.51108588316083</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>21.23208830785679</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24971,13 +24971,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>11.11965843648079</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25157,22 +25157,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>28.4043410516494</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,13 +25199,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,10 +25214,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>322.3269054107765</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25318,22 +25318,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>96.01048066168084</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25394,22 +25394,22 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>306.3049065213312</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>26.12568053025296</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,25 +25436,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25546,22 +25546,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>101.4286446528384</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>114.5949873389692</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
         <v>156.1708888417951</v>
@@ -25570,7 +25570,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25594,16 +25594,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25615,7 +25615,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25628,10 +25628,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>89.79231049789979</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,7 +25640,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>79.20246034757463</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,7 +25798,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25807,7 +25807,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25831,19 +25831,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S43" t="n">
-        <v>59.09000012742584</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>85.16958467259894</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>413.784170020795</v>
@@ -25910,28 +25910,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>343.7144021974043</v>
       </c>
     </row>
     <row r="45">
@@ -26023,19 +26023,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>38.52630155726061</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26044,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,22 +26068,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>65.08717904782202</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.782208031</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.7822080311</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="6">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="15">
@@ -26320,7 +26320,7 @@
         <v>147339.1279972482</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26332,7 +26332,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133937</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26350,10 +26350,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>26613.58757266359</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835738</v>
+        <v>407720.437683574</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910626</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525759</v>
+        <v>5625.642228525788</v>
       </c>
       <c r="M3" t="n">
         <v>102434.117690635</v>
@@ -26436,19 +26436,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597036</v>
@@ -26457,7 +26457,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597035</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>50134.40740683338</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
@@ -26485,19 +26485,19 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340947</v>
@@ -26519,28 +26519,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>12006.33885861917</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016687</v>
+        <v>92775.77039016692</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535127981</v>
+        <v>70394.51535127978</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326492</v>
+        <v>-211685.3057326493</v>
       </c>
       <c r="F6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="G6" t="n">
         <v>196035.1319509247</v>
-      </c>
-      <c r="G6" t="n">
-        <v>196035.1319509246</v>
       </c>
       <c r="H6" t="n">
         <v>196035.1319509248</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509245</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="J6" t="n">
         <v>132975.1893518185</v>
@@ -26552,13 +26552,13 @@
         <v>190409.4897223989</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028967</v>
+        <v>93601.0142602897</v>
       </c>
       <c r="N6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509247</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="P6" t="n">
         <v>196035.1319509247</v>
@@ -26744,40 +26744,40 @@
         <v>23.01338268678986</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26796,28 +26796,28 @@
         <v>263.2420339516672</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545557</v>
@@ -26966,7 +26966,7 @@
         <v>23.01338268678986</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302967</v>
+        <v>354.7302815302968</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>22.22774507400811</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028884</v>
+        <v>411.0452388028885</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,13 +27033,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.227745074008</v>
+        <v>22.22774507400811</v>
       </c>
       <c r="M4" t="n">
         <v>411.0452388028885</v>
@@ -27264,7 +27264,7 @@
         <v>22.22774507400811</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028884</v>
+        <v>411.0452388028885</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>1.704292963125476</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>4.676710155246607</v>
       </c>
       <c r="K9" t="n">
         <v>7.993242550750399</v>
@@ -31610,19 +31610,19 @@
         <v>10.74790103688238</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.54229356430047</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>11.77742425104047</v>
       </c>
       <c r="P9" t="n">
         <v>9.452421277523179</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R9" t="n">
         <v>3.073372125605635</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,19 +31829,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31856,22 +31856,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31908,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,22 +31932,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32084,7 +32084,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
@@ -32093,22 +32093,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,22 +32169,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K17" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M17" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,19 +32303,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K18" t="n">
-        <v>11.76595806653216</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32330,22 +32330,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32406,22 +32406,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32467,19 +32467,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32494,13 +32494,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32558,7 +32558,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>162.4518126576415</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32567,22 +32567,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>111.734380307287</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,16 +32619,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32643,16 +32643,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32704,19 +32704,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32731,13 +32731,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32798,28 +32798,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>167.900586832999</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134861</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,16 +32856,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32880,16 +32880,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32941,19 +32941,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32968,13 +32968,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,22 +33014,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942338</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33041,22 +33041,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,16 +33093,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33117,16 +33117,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -33178,19 +33178,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N29" t="n">
         <v>270.9617944338304</v>
@@ -33205,13 +33205,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I30" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33278,22 +33278,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q30" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,16 +33330,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K31" t="n">
         <v>79.14039391302239</v>
@@ -33354,16 +33354,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P31" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
@@ -33415,19 +33415,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N32" t="n">
         <v>270.9617944338304</v>
@@ -33442,13 +33442,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I33" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33515,22 +33515,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K34" t="n">
         <v>79.14039391302239</v>
@@ -33591,16 +33591,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P34" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
@@ -33652,19 +33652,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N35" t="n">
         <v>270.9617944338304</v>
@@ -33679,13 +33679,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,19 +33725,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I36" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653305</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33752,22 +33752,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q36" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K37" t="n">
         <v>79.14039391302239</v>
@@ -33828,16 +33828,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P37" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
@@ -33889,19 +33889,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727438</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N38" t="n">
         <v>270.9617944338304</v>
@@ -33916,13 +33916,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,22 +33962,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I39" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071302</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -33989,22 +33989,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q39" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,16 +34041,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K40" t="n">
         <v>79.14039391302239</v>
@@ -34065,16 +34065,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P40" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
@@ -34126,19 +34126,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N41" t="n">
         <v>270.9617944338304</v>
@@ -34153,13 +34153,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,19 +34199,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I42" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34223,25 +34223,25 @@
         <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q42" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S42" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,16 +34278,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I43" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K43" t="n">
         <v>79.14039391302239</v>
@@ -34302,16 +34302,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P43" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
@@ -34363,19 +34363,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34390,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34454,7 +34454,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N45" t="n">
         <v>211.31907117367</v>
@@ -34463,22 +34463,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34515,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34539,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34787,16 +34787,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35018,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35033,7 +35033,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>243.0338665604674</v>
       </c>
       <c r="M9" t="n">
+        <v>2.657704983215294</v>
+      </c>
+      <c r="N9" t="n">
         <v>263.2420339516672</v>
       </c>
-      <c r="N9" t="n">
-        <v>20.75382253346625</v>
-      </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>263.0434990833256</v>
       </c>
       <c r="P9" t="n">
         <v>193.9407825031301</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>76.41420694903826</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,16 +35498,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35732,19 +35732,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K17" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
         <v>153.9975062898689</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047518</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35972,13 +35972,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N18" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
         <v>173.8110948137341</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,19 +36118,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36206,16 +36206,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856231</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36446,16 +36446,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>323.920986939093</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,19 +36592,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730084</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K29" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O29" t="n">
         <v>406.5635087530452</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36920,16 +36920,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,19 +37066,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K32" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O32" t="n">
         <v>406.5635087530452</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,19 +37303,19 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K35" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O35" t="n">
         <v>406.5635087530452</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37394,16 +37394,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O36" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O38" t="n">
         <v>406.5635087530452</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307152</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37777,19 +37777,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K41" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O41" t="n">
         <v>406.5635087530452</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37868,13 +37868,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q42" t="n">
         <v>173.8110948137341</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38102,19 +38102,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390566</v>
+        <v>929720.4897610371</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>265275.4337268758</v>
+        <v>288670.0524940119</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.68099519</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132059</v>
+        <v>7919633.117874093</v>
       </c>
     </row>
     <row r="11">
@@ -656,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -735,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>66.59358938417571</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -792,13 +794,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>104.7383832473596</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -856,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,55 +907,55 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S5" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,10 +1028,10 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>50.05769526855297</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,25 +1138,25 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>263.2420339516672</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052851991</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>227.7664834517763</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.2420339516672</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1209,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1263,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>55.57566235103561</v>
       </c>
       <c r="V9" t="n">
-        <v>232.1886443080234</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>159.8350691069755</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>217.2380149098806</v>
+        <v>73.46100831328394</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1388,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1420,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>15.1823972622756</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>401.7519418729551</v>
+        <v>253.6503410818599</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1654,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1703,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I15" t="n">
         <v>61.42221998250818</v>
@@ -1746,7 +1748,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -1768,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>62.56386682245585</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>18.37682225755673</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.3098022590509</v>
@@ -1786,7 +1788,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1904,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>321.7064610691122</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>91.16747085304316</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2008,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>99.76268368132413</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,16 +2058,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>155.2114886365811</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2093,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>296.7607853996629</v>
+        <v>388.2361579131151</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2141,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646389</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2178,7 +2180,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,25 +2244,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>83.82953530753691</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>39.02143253644981</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2321,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>381.6269365471937</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>87.8157510723924</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2479,19 +2481,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>52.10844059186277</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>128.7835007017899</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,22 +2602,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>15.8007188394479</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>118.1333893155622</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2682,7 +2684,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
-        <v>156.591242632523</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T27" t="n">
         <v>196.8897623984489</v>
@@ -2716,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>95.29787616176787</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -2770,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>147.3596012393434</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>221.002178698296</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2842,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>201.6462734508707</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2953,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>68.19029374363566</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>68.08390849687497</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>159.7365432862665</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.4202303617004</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.74455817980858</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>213.9154470216035</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2818742419777</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3272,19 +3274,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>353.5260290206124</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>233.2248150354256</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3351,7 +3353,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554011</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>162.5776147681361</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3478,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>297.7970922341042</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -3554,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>209.5811765789067</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>78.40333552909894</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>129.741167782566</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3749,10 +3751,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>334.5817096732204</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>26.94389492651078</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3837,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3949,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U43" t="n">
-        <v>190.271393580297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3974,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>42.52353645864926</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4119,7 +4121,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034777</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.516763498309</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F2" t="n">
-        <v>223.6192102101089</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G2" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>420.237879300003</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>245.784850018876</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
         <v>19.28114311021272</v>
@@ -4419,13 +4421,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4442,19 @@
         <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>588.4532163200711</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>588.4532163200711</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W3" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X3" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
-        <v>588.4532163200711</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4504,16 +4506,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
         <v>19.28114311021272</v>
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4589,28 +4591,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4674,22 +4676,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>913.4938269565423</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U6" t="n">
-        <v>913.4938269565423</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V6" t="n">
-        <v>678.3417187247995</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W6" t="n">
-        <v>434.8929420806995</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4741,25 +4743,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>556.9999364092509</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="C8" t="n">
-        <v>556.9999364092509</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="D8" t="n">
-        <v>291.0988920136275</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="E8" t="n">
-        <v>291.0988920136275</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="F8" t="n">
-        <v>25.19784761800408</v>
+        <v>467.0679868542089</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800408</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800408</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573685</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142367</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098033</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369341</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885156</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806669</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="X8" t="n">
-        <v>822.9009808048744</v>
+        <v>710.5167634983089</v>
       </c>
       <c r="Y8" t="n">
-        <v>556.9999364092509</v>
+        <v>467.0679868542089</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>650.2188146370821</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>475.7657853559551</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>326.8313756947039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>167.5939206892484</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109961</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>264.2940185443792</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>524.9036321565297</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>785.316696249022</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271207</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806669</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806669</v>
+        <v>761.870560869402</v>
       </c>
       <c r="U9" t="n">
-        <v>1052.968135806669</v>
+        <v>705.7335281915882</v>
       </c>
       <c r="V9" t="n">
-        <v>818.4341516571501</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>818.4341516571501</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>818.4341516571501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>818.4341516571501</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613337</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613337</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360313</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955242</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.0877739486502</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716489</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706541</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>21.05936271613337</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1405.321187657107</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="C11" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D11" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E11" t="n">
-        <v>1036.358670716696</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F11" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5066,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U11" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V11" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.892857925728</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.753525949916</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5111,10 @@
         <v>359.3385232961347</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036446</v>
@@ -5121,13 +5123,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.2060027641992</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598711</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
         <v>1748.695370517453</v>
@@ -5179,10 +5181,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="D13" t="n">
-        <v>578.0123447940987</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E13" t="n">
-        <v>562.6765899837193</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F13" t="n">
         <v>562.6765899837193</v>
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>940.4137200851862</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C14" t="n">
-        <v>940.4137200851862</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="D14" t="n">
-        <v>940.4137200851862</v>
+        <v>1106.929604947469</v>
       </c>
       <c r="E14" t="n">
-        <v>940.4137200851862</v>
+        <v>721.1413523492245</v>
       </c>
       <c r="F14" t="n">
-        <v>940.4137200851862</v>
+        <v>310.1554475596169</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U14" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.387305656314</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W14" t="n">
-        <v>2090.6186503862</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X14" t="n">
-        <v>1717.15289212512</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y14" t="n">
-        <v>1327.013560149308</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
         <v>115.9856282673424</v>
@@ -5355,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5416,22 +5418,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="D16" t="n">
-        <v>664.9331591332467</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="E16" t="n">
-        <v>517.0200655508536</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F16" t="n">
-        <v>517.0200655508536</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G16" t="n">
-        <v>348.0202652891861</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5489,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.620145934678</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.657628994267</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D17" t="n">
-        <v>920.3919303875161</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5525,7 +5527,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5540,25 +5542,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V17" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W17" t="n">
-        <v>2113.174258592771</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X17" t="n">
-        <v>1739.708500331692</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y17" t="n">
-        <v>1647.620145934678</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="18">
@@ -5616,19 +5618,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>291.0422802786093</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>291.0422802786093</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>291.0422802786093</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I19" t="n">
         <v>53.94298182036445</v>
@@ -5704,19 +5706,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U19" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V19" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W19" t="n">
-        <v>281.9325327183818</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1491.915471247703</v>
+        <v>1584.314837422907</v>
       </c>
       <c r="C20" t="n">
-        <v>1122.952954307291</v>
+        <v>1215.352320482495</v>
       </c>
       <c r="D20" t="n">
-        <v>764.6872557005406</v>
+        <v>857.0866218757449</v>
       </c>
       <c r="E20" t="n">
-        <v>764.6872557005406</v>
+        <v>857.0866218757449</v>
       </c>
       <c r="F20" t="n">
-        <v>353.7013509109331</v>
+        <v>446.1007170861373</v>
       </c>
       <c r="G20" t="n">
         <v>53.94298182036446</v>
@@ -5750,13 +5752,13 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V20" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W20" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748109</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.654643287636</v>
+        <v>1970.914677487029</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.515311311824</v>
+        <v>1970.914677487029</v>
       </c>
     </row>
     <row r="21">
@@ -5811,19 +5813,19 @@
         <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
         <v>53.94298182036446</v>
@@ -5844,7 +5846,7 @@
         <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
         <v>2525.076107152626</v>
@@ -5884,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D22" t="n">
-        <v>540.5667372199621</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>540.5667372199621</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F22" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G22" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H22" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I22" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J22" t="n">
         <v>53.94298182036446</v>
@@ -5932,28 +5934,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406185</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y22" t="n">
-        <v>540.5667372199621</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1194.175505447095</v>
+        <v>1666.648133616381</v>
       </c>
       <c r="C23" t="n">
-        <v>825.2129885066831</v>
+        <v>1297.685616675969</v>
       </c>
       <c r="D23" t="n">
-        <v>825.2129885066831</v>
+        <v>939.4199180692187</v>
       </c>
       <c r="E23" t="n">
-        <v>439.4247359084389</v>
+        <v>553.6316654709744</v>
       </c>
       <c r="F23" t="n">
-        <v>53.94298182036445</v>
+        <v>142.6457606813669</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>142.6457606813669</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>142.6457606813669</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.961649073313</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6005,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W23" t="n">
-        <v>2344.380435748108</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="X23" t="n">
-        <v>1970.914677487028</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="Y23" t="n">
-        <v>1580.775345511217</v>
+        <v>2053.247973680503</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
         <v>221.4284102424006</v>
@@ -6063,7 +6065,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
         <v>129.2001442204943</v>
@@ -6084,25 +6086,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V25" t="n">
-        <v>2442.464602812336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W25" t="n">
-        <v>2153.047432775375</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y25" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>792.1236065739693</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C26" t="n">
-        <v>792.1236065739693</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>792.1236065739693</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E26" t="n">
-        <v>792.1236065739693</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6242,34 +6244,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2626.160079488668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2626.160079488668</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V26" t="n">
-        <v>2295.097192145097</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W26" t="n">
-        <v>1942.328536874983</v>
+        <v>2359.18776811598</v>
       </c>
       <c r="X26" t="n">
-        <v>1568.862778613903</v>
+        <v>1985.7220098549</v>
       </c>
       <c r="Y26" t="n">
-        <v>1178.723446638091</v>
+        <v>1595.582677879088</v>
       </c>
     </row>
     <row r="27">
@@ -6279,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6300,7 +6302,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
@@ -6309,37 +6311,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="C28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="D28" t="n">
-        <v>201.8560754027576</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6409,25 +6411,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750362</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="U28" t="n">
-        <v>500.8207968750362</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="V28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="W28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="X28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
       <c r="Y28" t="n">
-        <v>351.9727148150933</v>
+        <v>286.5323736931989</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1519.351822121131</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C29" t="n">
-        <v>1150.38930518072</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D29" t="n">
-        <v>792.1236065739693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1236065739693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G29" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6479,34 +6481,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2262.259809367057</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2262.259809367057</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2262.259809367057</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>1909.491154096943</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X29" t="n">
-        <v>1909.491154096943</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y29" t="n">
-        <v>1519.351822121131</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6518,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L30" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N30" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y30" t="n">
         <v>1156.713312237151</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2173.079728044489</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="C31" t="n">
-        <v>2173.079728044489</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>2338.852836391731</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>2191.96288889382</v>
       </c>
       <c r="G31" t="n">
         <v>2022.963088632153</v>
@@ -6625,46 +6627,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R31" t="n">
-        <v>2628.377466273905</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S31" t="n">
-        <v>2628.377466273905</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T31" t="n">
-        <v>2401.069278942507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U31" t="n">
-        <v>2401.069278942507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V31" t="n">
-        <v>2401.069278942507</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W31" t="n">
-        <v>2401.069278942507</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X31" t="n">
-        <v>2173.079728044489</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="Y31" t="n">
-        <v>2173.079728044489</v>
+        <v>2407.731920981262</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1717.512263598976</v>
+        <v>1328.309493689272</v>
       </c>
       <c r="C32" t="n">
-        <v>1717.512263598976</v>
+        <v>959.3469767488607</v>
       </c>
       <c r="D32" t="n">
-        <v>1717.512263598976</v>
+        <v>601.0812781421102</v>
       </c>
       <c r="E32" t="n">
-        <v>1331.724011000732</v>
+        <v>215.293025543866</v>
       </c>
       <c r="F32" t="n">
-        <v>920.7381062111247</v>
+        <v>215.293025543866</v>
       </c>
       <c r="G32" t="n">
-        <v>502.7742981093115</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H32" t="n">
-        <v>175.5795781453144</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036446</v>
@@ -6710,7 +6712,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6725,25 +6727,25 @@
         <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2302.336936304456</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U32" t="n">
-        <v>2048.575150942547</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V32" t="n">
-        <v>1717.512263598976</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W32" t="n">
-        <v>1717.512263598976</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X32" t="n">
-        <v>1717.512263598976</v>
+        <v>2105.048665729206</v>
       </c>
       <c r="Y32" t="n">
-        <v>1717.512263598976</v>
+        <v>1714.909333753394</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>270.0191909330955</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T34" t="n">
-        <v>2481.072881905492</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y34" t="n">
-        <v>2191.89927156006</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1936.146930626914</v>
+        <v>903.5661947296837</v>
       </c>
       <c r="C35" t="n">
-        <v>1567.184413686502</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D35" t="n">
-        <v>1567.184413686502</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E35" t="n">
-        <v>1210.087414675782</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F35" t="n">
-        <v>799.1015098861748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036446</v>
@@ -6941,13 +6943,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6959,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U35" t="n">
-        <v>2267.209817970484</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V35" t="n">
-        <v>1936.146930626914</v>
+        <v>2406.539780300811</v>
       </c>
       <c r="W35" t="n">
-        <v>1936.146930626914</v>
+        <v>2053.771125030697</v>
       </c>
       <c r="X35" t="n">
-        <v>1936.146930626914</v>
+        <v>1680.305366769617</v>
       </c>
       <c r="Y35" t="n">
-        <v>1936.146930626914</v>
+        <v>1290.166034793805</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
         <v>505.8730812692495</v>
@@ -7014,25 +7016,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7059,7 +7061,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y36" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C37" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D37" t="n">
-        <v>728.1289842064344</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E37" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K37" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064344</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064344</v>
+        <v>2187.182901529261</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2091.914583926164</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C38" t="n">
-        <v>1722.952066985752</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D38" t="n">
-        <v>1722.952066985752</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E38" t="n">
-        <v>1337.163814387508</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F38" t="n">
-        <v>926.1779095979002</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G38" t="n">
-        <v>508.2141014960871</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
         <v>207.4089578252748</v>
@@ -7202,22 +7204,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2485.450932857711</v>
       </c>
       <c r="U38" t="n">
-        <v>2478.514423990286</v>
+        <v>2485.450932857711</v>
       </c>
       <c r="V38" t="n">
-        <v>2478.514423990286</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="W38" t="n">
-        <v>2478.514423990286</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="X38" t="n">
-        <v>2478.514423990286</v>
+        <v>1780.92228725306</v>
       </c>
       <c r="Y38" t="n">
-        <v>2478.514423990286</v>
+        <v>1390.782955277248</v>
       </c>
     </row>
     <row r="39">
@@ -7251,10 +7253,10 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L39" t="n">
         <v>670.8219208598711</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>200.8329293182748</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C40" t="n">
-        <v>200.8329293182748</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="D40" t="n">
-        <v>200.8329293182748</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>331.8846139471293</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>184.994666449219</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>184.994666449219</v>
       </c>
       <c r="H40" t="n">
         <v>53.94298182036446</v>
@@ -7375,7 +7377,7 @@
         <v>500.8207968750362</v>
       </c>
       <c r="Y40" t="n">
-        <v>280.0282177315061</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1546.94416071721</v>
+        <v>1166.959449965771</v>
       </c>
       <c r="C41" t="n">
-        <v>1546.94416071721</v>
+        <v>797.9969330253591</v>
       </c>
       <c r="D41" t="n">
-        <v>1188.678462110459</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E41" t="n">
-        <v>802.8902095122148</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F41" t="n">
-        <v>391.9043047226073</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733127</v>
@@ -7427,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018223</v>
+        <v>2669.933035536898</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018223</v>
+        <v>2317.164380266784</v>
       </c>
       <c r="X41" t="n">
-        <v>2323.683332757143</v>
+        <v>1943.698622005704</v>
       </c>
       <c r="Y41" t="n">
-        <v>1933.544000781331</v>
+        <v>1553.559290029893</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
         <v>2188.831293537797</v>
@@ -7509,31 +7511,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X42" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7597,22 +7599,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T43" t="n">
-        <v>500.8207968750362</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U43" t="n">
         <v>308.6274700262513</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1166.959449965771</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C44" t="n">
-        <v>797.9969330253592</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D44" t="n">
-        <v>439.7312344186087</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E44" t="n">
-        <v>53.94298182036446</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U44" t="n">
-        <v>2267.209817970484</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V44" t="n">
-        <v>1936.146930626914</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W44" t="n">
-        <v>1583.3782753568</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X44" t="n">
-        <v>1209.91251709572</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y44" t="n">
-        <v>1166.959449965771</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="45">
@@ -7701,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
         <v>129.2001442204943</v>
@@ -7737,31 +7739,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V46" t="n">
-        <v>473.4444960005476</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.027325963587</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8307,13 +8309,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236086</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>132.2494453409331</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>394.5837460350004</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -9003,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10899,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11153,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11385,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F2" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>149.1294050414824</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22623,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>80.85147618046304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22680,13 +22682,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>146.95659991356</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22744,19 +22746,19 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22793,10 +22795,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22829,19 +22831,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22914,10 +22916,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>150.1070334262686</v>
+        <v>171.1123110561968</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22929,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23002,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901579</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>143.6340117900443</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.2102214038314</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>98.46051323810815</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>144.05760276447</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23084,10 +23086,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>141.9646172266927</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.9959047043864</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.6923398882896</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.0844620270375</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>170.3657197299392</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6119428414018842</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839138</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871606</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598912</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>15.59235192972082</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908972</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>165.4958267536</v>
+        <v>309.2728333501966</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>131.2515653842936</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>12.03222814783987</v>
+        <v>160.133828938935</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23656,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>86.05160619575651</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>128.0571403890124</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23674,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
         <v>216.4483203576578</v>
@@ -23792,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>27.53450764830086</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>295.0704678030104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23896,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H19" t="n">
-        <v>156.1708888417951</v>
+        <v>56.40820516047101</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>45.19995918853699</v>
@@ -23944,16 +23946,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>96.92615468724688</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23981,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>117.0233846211321</v>
+        <v>25.54801210767994</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24029,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24130,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>64.78593771067544</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>186.0136729216345</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24209,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>25.24910919451776</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>413.784170020795</v>
@@ -24224,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>64.11556517246885</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,16 +24262,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24367,19 +24369,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634958</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>134.9656217923382</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>96.92615468724728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,10 +24448,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24458,7 +24460,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24488,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>200.6476015182099</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>231.1075794018508</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24604,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24618,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>60.87301268002727</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>45.19995918853699</v>
@@ -24649,7 +24651,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>104.7780420844846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>144.2707130727115</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24728,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>14.80204690678713</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
         <v>251.2241675082893</v>
@@ -24740,10 +24742,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>78.24366890293351</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24883,13 +24885,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>78.58128348328286</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>254.0476267345284</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>31.51108588316083</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24965,25 +24967,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>109.5652440792423</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>134.9656217923382</v>
@@ -25126,7 +25128,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>11.11965843648079</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25160,19 +25162,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>28.4043410516494</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>94.52744343470928</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>17.25436541380117</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25366,7 +25368,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25391,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>26.12568053025296</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,22 +25444,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>6.867143778751057</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>101.4286446528384</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25564,7 +25566,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>26.42972105922919</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25637,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>79.20246034757463</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
@@ -25685,10 +25687,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>300.8083635436241</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U43" t="n">
-        <v>96.01048066168073</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25910,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>343.7144021974043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26035,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>38.52630155726061</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26044,7 +26046,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26077,10 +26079,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.7822080311</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.3990502443</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="5">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.416541758</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
   </sheetData>
@@ -26317,7 +26319,7 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972482</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26332,10 +26334,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.718513394</v>
       </c>
       <c r="K2" t="n">
         <v>245779.7185133939</v>
@@ -26347,13 +26349,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
+        <v>245779.7185133938</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.7185133939</v>
       </c>
-      <c r="O2" t="n">
-        <v>245779.7185133938</v>
-      </c>
       <c r="P2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266359</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.437683574</v>
+        <v>432846.1740429962</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.117690635</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714451</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26436,19 +26438,19 @@
         <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597036</v>
       </c>
       <c r="L4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
         <v>513.1084990597036</v>
@@ -26457,7 +26459,7 @@
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683338</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340947</v>
@@ -26488,13 +26490,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
+        <v>49231.47806340947</v>
+      </c>
+      <c r="J5" t="n">
         <v>49231.47806340946</v>
       </c>
-      <c r="J5" t="n">
-        <v>49231.47806340947</v>
-      </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340947</v>
@@ -26506,10 +26508,10 @@
         <v>49231.47806340947</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861917</v>
+        <v>12006.33885861916</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016692</v>
+        <v>92775.77039016687</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535127978</v>
+        <v>92775.77039016689</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326493</v>
+        <v>-236811.0420920714</v>
       </c>
       <c r="F6" t="n">
         <v>196035.1319509248</v>
       </c>
       <c r="G6" t="n">
+        <v>196035.1319509246</v>
+      </c>
+      <c r="H6" t="n">
         <v>196035.1319509247</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
+        <v>196035.1319509247</v>
+      </c>
+      <c r="J6" t="n">
+        <v>132975.1893518186</v>
+      </c>
+      <c r="K6" t="n">
         <v>196035.1319509248</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>196035.1319509247</v>
+      </c>
+      <c r="M6" t="n">
+        <v>88061.77127686652</v>
+      </c>
+      <c r="N6" t="n">
         <v>196035.1319509246</v>
       </c>
-      <c r="J6" t="n">
-        <v>132975.1893518185</v>
-      </c>
-      <c r="K6" t="n">
-        <v>196035.1319509247</v>
-      </c>
-      <c r="L6" t="n">
-        <v>190409.4897223989</v>
-      </c>
-      <c r="M6" t="n">
-        <v>93601.0142602897</v>
-      </c>
-      <c r="N6" t="n">
-        <v>196035.1319509247</v>
-      </c>
       <c r="O6" t="n">
-        <v>196035.1319509246</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="P6" t="n">
         <v>196035.1319509247</v>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170867</v>
@@ -26777,7 +26779,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516672</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545557</v>
@@ -26808,13 +26810,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545557</v>
@@ -26826,10 +26828,10 @@
         <v>674.2872727545557</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678986</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.7302815302968</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400811</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028885</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400811</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028885</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367775</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9474806248887899</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.56672738103504</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760526</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324521</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455514</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895192</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019349</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841755</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.303932450608</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214545037</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679652</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332559</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318495</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.007401288904294218</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498196</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104837</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125476</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246607</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750399</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688238</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430047</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104047</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523179</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.31869329921068</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605635</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705524055</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467912</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.003256610757564604</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994892</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259097</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047555</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281388</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166792</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471498</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.50524192898881</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.350561815848097</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150964</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037132002</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705268</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473157</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.7232238460750187</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588726</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815398</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,10 +31840,10 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
-        <v>87.78329382423973</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
@@ -31850,7 +31852,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -32093,10 +32095,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.29709682323505</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
         <v>50.44659727034983</v>
@@ -32564,10 +32566,10 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>149.897181251634</v>
       </c>
       <c r="P21" t="n">
-        <v>111.734380307287</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
         <v>103.7155811639065</v>
@@ -32804,10 +32806,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>139.4326257134861</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034983</v>
@@ -32959,7 +32961,7 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119862</v>
       </c>
       <c r="P26" t="n">
         <v>218.3719038954667</v>
@@ -33029,7 +33031,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L27" t="n">
-        <v>56.98116194942338</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M27" t="n">
         <v>205.8702969983122</v>
@@ -33506,7 +33508,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576417</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33737,7 +33739,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423973</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33977,7 +33979,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>132.9984977071302</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
         <v>205.8702969983122</v>
@@ -34211,7 +34213,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K42" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
         <v>176.4169820478007</v>
@@ -34363,19 +34365,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L44" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
@@ -34390,13 +34392,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34463,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
         <v>79.14039391302239</v>
@@ -34539,16 +34541,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35027,13 +35029,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194294</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150183</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945117</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455867</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.2898937894762</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.8696448668211</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>2.657704983215294</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516672</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833256</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
-        <v>193.9407825031301</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903826</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178763</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.0891188908294</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507669</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919064</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.29774030202549</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624593</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35498,7 +35500,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35741,10 +35743,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36212,10 +36214,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P21" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
         <v>173.8110948137341</v>
@@ -36452,10 +36454,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>323.920986939093</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36609,7 @@
         <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530448</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
@@ -36677,7 +36679,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L27" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M27" t="n">
         <v>529.4413268262938</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36931,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q30" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856233</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338903</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624593</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L39" t="n">
-        <v>365.2844632307152</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
         <v>529.4413268262938</v>
@@ -37859,7 +37861,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K42" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
         <v>408.7029475713857</v>
@@ -37871,7 +37873,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735647</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
         <v>406.5635087530452</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38105,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O45" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861494.9029543325</v>
+        <v>922122.0512245477</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175286.4025185332</v>
+        <v>197740.0768207157</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10850698.87543053</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7968002.373389174</v>
+        <v>7919633.117874094</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>244.5627323611424</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="C2" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>207.015073485381</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G2" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -682,7 +682,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.395781178313161</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9408621947163</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.02188483835992</v>
+        <v>82.28530073128384</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>137.0815656650981</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>192.4940119365621</v>
+        <v>84.41978777916125</v>
       </c>
     </row>
     <row r="6">
@@ -974,16 +974,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>40.21785502103964</v>
       </c>
       <c r="E6" t="n">
-        <v>17.9265943244989</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>159.8350691069752</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>243.2386572690346</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>276.1565137023555</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>155.503216620085</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6773952840985035</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>83.69620586562527</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>61.28737103419864</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>312.4859064277798</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>153.8564357574052</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498671</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>155.8860385675338</v>
+        <v>189.2872221905118</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>51.83903723181706</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>26.94389492651078</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1943,7 +1943,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>153.5788240117441</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>88.56530809765842</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>179.1035782792534</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>61.61413745349994</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>167.3098022590509</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>22.28704139029319</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,13 +2320,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>367.6097747287636</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2335,7 +2335,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>78.44138815336585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>59.72683757586846</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>49.38957925603672</v>
       </c>
     </row>
     <row r="26">
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>376.0368885193222</v>
+        <v>152.7328211634103</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2721,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
-        <v>92.00803688215807</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>59.43262708185673</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>352.5118528534875</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2809,7 +2809,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>153.6099101250728</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>92.00803688215807</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>80.30846669433845</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.2241675082893</v>
@@ -3091,13 +3091,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>211.0999003463673</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>43.31175043371119</v>
       </c>
     </row>
     <row r="33">
@@ -3189,13 +3189,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>60.44533761123545</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,19 +3274,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>141.4957998077628</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>35.3737736561761</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3362,7 +3362,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I36" t="n">
         <v>61.42221998250818</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>48.9769967570045</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>80.30846669433845</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>4.020123643055496</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
         <v>251.2241675082893</v>
@@ -3565,10 +3565,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>43.31175043371119</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3663,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>59.72683757586846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,10 +3790,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -3802,13 +3802,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>35.18155893056274</v>
       </c>
       <c r="X41" t="n">
-        <v>11.75685339834053</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>25.2529242564392</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>107.8524135464461</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>253.6503410818601</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3991,7 +3991,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>209.5972717395343</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>3.888834254466539</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>61.67711861392293</v>
       </c>
       <c r="T46" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.7372794047154</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C2" t="n">
-        <v>475.7042164136625</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D2" t="n">
-        <v>475.7042164136625</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E2" t="n">
-        <v>266.5980815799443</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F2" t="n">
-        <v>266.5980815799443</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="H2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="I2" t="n">
-        <v>19.56501858889139</v>
+        <v>31.35113235729607</v>
       </c>
       <c r="J2" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>124.4399474973462</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>306.8231980260855</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>526.3662512024591</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>734.8297429586089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>886.4882690646268</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X2" t="n">
-        <v>969.7703423957684</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y2" t="n">
-        <v>969.7703423957684</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.56501858889139</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.56501858889139</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>146.1858617037014</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>377.8476075409624</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>619.9647125784934</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>862.0818176160244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>978.2509294445696</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>978.2509294445696</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>750.0278363185935</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>514.8757280868508</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W3" t="n">
-        <v>267.8426650957979</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X3" t="n">
-        <v>59.99116489026505</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.56501858889139</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>47.85425064936706</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>88.07040250863014</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>132.7649205860522</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>158.0312465334349</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.56501858889139</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.19784761800413</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>25.19784761800413</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D5" t="n">
-        <v>25.19784761800413</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E5" t="n">
-        <v>25.19784761800413</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F5" t="n">
-        <v>25.19784761800413</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G5" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800413</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.968135806668</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>907.4554057415462</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>698.4535282668868</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>473.5132653508267</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>219.6362435135214</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>219.6362435135214</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>219.6362435135214</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>219.6362435135214</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.19784761800413</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>213.6200630321077</v>
+        <v>347.7274039646085</v>
       </c>
       <c r="C6" t="n">
-        <v>39.16703375098072</v>
+        <v>173.2743746834815</v>
       </c>
       <c r="D6" t="n">
-        <v>39.16703375098072</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E6" t="n">
-        <v>21.05936271613335</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F6" t="n">
-        <v>21.05936271613335</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G6" t="n">
-        <v>21.05936271613335</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>24.95018035683216</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>158.2210505399124</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>398.824578434775</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>612.2133470446065</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>612.2133470446065</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285688</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.968135806668</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806668</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U6" t="n">
-        <v>824.7478070488723</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V6" t="n">
-        <v>589.5956988171297</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="W6" t="n">
-        <v>589.5956988171297</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="X6" t="n">
-        <v>589.5956988171297</v>
+        <v>555.4877027295624</v>
       </c>
       <c r="Y6" t="n">
-        <v>381.8354000521758</v>
+        <v>347.7274039646085</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.05936271613335</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>546.7341079359765</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>546.7341079359765</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>546.7341079359765</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>546.7341079359765</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F8" t="n">
-        <v>301.0384945329112</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>22.09252109618846</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>142.8373253438684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>344.9085595412869</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>586.3582880173957</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>817.0829279823544</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>989.7620250901066</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1099.465256491931</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>1104.626054809422</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>825.6800813726992</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>28.39914141318535</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>28.39914141318535</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>274.5546080058863</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>547.9495565712182</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>673.2291631121088</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>921.9825771960711</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>1104.626054809422</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1104.626054809422</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>876.4074424435696</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V9" t="n">
-        <v>641.2553342118269</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W9" t="n">
-        <v>387.0179774836253</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X9" t="n">
-        <v>179.1664772780925</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y9" t="n">
-        <v>22.09252109618844</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>58.70189726492715</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>107.6904745160687</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>160.9488293168851</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>194.1252445754623</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>198.9927170031359</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>22.776758756894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>22.776758756894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>22.776758756894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>22.776758756894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>22.09252109618844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1637.643464250441</v>
+        <v>1577.945354755378</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.68094731003</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E11" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F11" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5041,10 +5041,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
         <v>881.2824271224073</v>
@@ -5053,7 +5053,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5074,19 +5074,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U11" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V11" t="n">
-        <v>2112.324418312743</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W11" t="n">
-        <v>2112.324418312743</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X11" t="n">
-        <v>2027.782796226253</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y11" t="n">
-        <v>1637.643464250441</v>
+        <v>1577.945354755378</v>
       </c>
     </row>
     <row r="12">
@@ -5114,31 +5114,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5229,16 +5229,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T13" t="n">
-        <v>571.3497027553424</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U13" t="n">
-        <v>571.3497027553424</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V13" t="n">
-        <v>571.3497027553424</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W13" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X13" t="n">
         <v>53.94298182036445</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2323.103882821189</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="C14" t="n">
-        <v>1954.141365880777</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="D14" t="n">
-        <v>1595.875667274027</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E14" t="n">
-        <v>1210.087414675782</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H14" t="n">
         <v>53.94298182036445</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V14" t="n">
-        <v>2323.103882821189</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W14" t="n">
-        <v>2323.103882821189</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X14" t="n">
-        <v>2323.103882821189</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y14" t="n">
-        <v>2323.103882821189</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="15">
@@ -5333,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5357,25 +5357,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5466,22 +5466,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>536.9297698725838</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>247.5125998356232</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1166.959449965771</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C17" t="n">
-        <v>797.9969330253591</v>
+        <v>1293.521057189058</v>
       </c>
       <c r="D17" t="n">
-        <v>439.7312344186087</v>
+        <v>935.2553585823075</v>
       </c>
       <c r="E17" t="n">
-        <v>53.94298182036445</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F17" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G17" t="n">
         <v>53.94298182036445</v>
@@ -5515,7 +5515,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2669.933035536898</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2669.933035536898</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2669.933035536898</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>2669.933035536898</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
-        <v>2669.933035536898</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2317.164380266784</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X17" t="n">
-        <v>1943.698622005704</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y17" t="n">
-        <v>1553.559290029893</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L18" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M18" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D19" t="n">
         <v>53.94298182036445</v>
@@ -5697,28 +5697,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U19" t="n">
-        <v>598.0446400632119</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V19" t="n">
-        <v>343.360151857325</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>424.8522003762303</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1358.140854479381</v>
+        <v>1679.795701438247</v>
       </c>
       <c r="C20" t="n">
-        <v>1358.140854479381</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D20" t="n">
-        <v>1268.68094731003</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E20" t="n">
-        <v>882.8926947117852</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F20" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5782,22 +5782,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V20" t="n">
-        <v>2134.880026519315</v>
+        <v>2066.395541502369</v>
       </c>
       <c r="W20" t="n">
-        <v>2134.880026519315</v>
+        <v>2066.395541502369</v>
       </c>
       <c r="X20" t="n">
-        <v>2134.880026519315</v>
+        <v>2066.395541502369</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.740694543503</v>
+        <v>2066.395541502369</v>
       </c>
     </row>
     <row r="21">
@@ -5807,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
@@ -5837,19 +5837,19 @@
         <v>309.190302261463</v>
       </c>
       <c r="L21" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018222</v>
@@ -5870,10 +5870,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W21" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X21" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
         <v>1156.713312237151</v>
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.9823256406182</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C22" t="n">
-        <v>579.9823256406182</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7458231623355</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E22" t="n">
-        <v>369.8327295799424</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F22" t="n">
         <v>222.942782082032</v>
@@ -5916,46 +5916,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S22" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>579.9823256406182</v>
+        <v>705.6168211859363</v>
       </c>
       <c r="U22" t="n">
-        <v>579.9823256406182</v>
+        <v>705.6168211859363</v>
       </c>
       <c r="V22" t="n">
-        <v>579.9823256406182</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W22" t="n">
-        <v>579.9823256406182</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X22" t="n">
-        <v>579.9823256406182</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y22" t="n">
-        <v>579.9823256406182</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1623.178216428726</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C23" t="n">
-        <v>1254.215699488314</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D23" t="n">
-        <v>1254.215699488314</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E23" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F23" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036445</v>
@@ -6016,25 +6016,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V23" t="n">
-        <v>2366.086203674652</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="W23" t="n">
-        <v>2013.317548404538</v>
+        <v>1969.341425535107</v>
       </c>
       <c r="X23" t="n">
-        <v>2013.317548404538</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="Y23" t="n">
-        <v>1623.178216428726</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>368.8844281164668</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>773.5003462121387</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1297.64725977017</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1851.373795869721</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2291.509718890065</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2627.754532504894</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>667.7988452409105</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C25" t="n">
-        <v>498.8626623130036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D25" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036445</v>
@@ -6177,22 +6177,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U25" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V25" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W25" t="n">
-        <v>667.7988452409105</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X25" t="n">
-        <v>667.7988452409105</v>
+        <v>272.8312459770186</v>
       </c>
       <c r="Y25" t="n">
-        <v>667.7988452409105</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1957.780595683987</v>
+        <v>962.9693282917581</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.818078743575</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="D26" t="n">
-        <v>1230.552380136825</v>
+        <v>594.0068113513464</v>
       </c>
       <c r="E26" t="n">
-        <v>844.7641275385804</v>
+        <v>208.2185587531022</v>
       </c>
       <c r="F26" t="n">
-        <v>433.7782227489728</v>
+        <v>208.2185587531022</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W26" t="n">
-        <v>2344.380435748109</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X26" t="n">
-        <v>2344.380435748109</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y26" t="n">
-        <v>2344.380435748109</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
         <v>2646.935720430048</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="C28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="D28" t="n">
-        <v>578.0123447940986</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E28" t="n">
-        <v>430.0992512117055</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F28" t="n">
-        <v>283.2093037137951</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>519.9493689922781</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1624.753525949916</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C29" t="n">
-        <v>1624.753525949916</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="U29" t="n">
-        <v>2388.358616186807</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="V29" t="n">
-        <v>2388.358616186807</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="W29" t="n">
-        <v>2388.358616186807</v>
+        <v>2310.781388484024</v>
       </c>
       <c r="X29" t="n">
-        <v>2014.892857925728</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="Y29" t="n">
-        <v>1624.753525949916</v>
+        <v>1937.315630222944</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018223</v>
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D31" t="n">
-        <v>578.0123447940986</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E31" t="n">
-        <v>430.0992512117055</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F31" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G31" t="n">
-        <v>283.2093037137951</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064343</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>920.3919303875161</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C32" t="n">
-        <v>920.3919303875161</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D32" t="n">
-        <v>920.3919303875161</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2224.752638628377</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V32" t="n">
-        <v>1893.689751284806</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W32" t="n">
-        <v>1680.457528712718</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X32" t="n">
-        <v>1306.991770451638</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y32" t="n">
-        <v>1306.991770451638</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P33" t="n">
         <v>2525.076107152626</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>559.1928012785273</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>409.0761618661916</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G34" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H34" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I34" t="n">
         <v>53.94298182036445</v>
@@ -6885,25 +6885,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W34" t="n">
-        <v>728.1289842064342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y34" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>797.9969330253591</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="C35" t="n">
-        <v>797.9969330253591</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D35" t="n">
-        <v>439.7312344186087</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E35" t="n">
-        <v>53.94298182036445</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F35" t="n">
-        <v>53.94298182036445</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6940,16 +6940,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6964,25 +6964,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2499.195351237844</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T35" t="n">
-        <v>2499.195351237844</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U35" t="n">
-        <v>2245.433565875936</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V35" t="n">
-        <v>1914.370678532365</v>
+        <v>2133.992864657682</v>
       </c>
       <c r="W35" t="n">
-        <v>1561.602023262251</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="X35" t="n">
-        <v>1188.136265001171</v>
+        <v>1781.224209387568</v>
       </c>
       <c r="Y35" t="n">
-        <v>797.9969330253591</v>
+        <v>1781.224209387568</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
         <v>115.9856282673424</v>
@@ -7016,43 +7016,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>368.8844281164663</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>773.5003462121382</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C37" t="n">
-        <v>559.1928012785273</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D37" t="n">
-        <v>409.0761618661916</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E37" t="n">
-        <v>261.1630682837985</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F37" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>261.1630682837985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>103.4146957163286</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y37" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1626.94664591678</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C38" t="n">
-        <v>1626.94664591678</v>
+        <v>743.4641313436935</v>
       </c>
       <c r="D38" t="n">
-        <v>1268.68094731003</v>
+        <v>385.1984327369429</v>
       </c>
       <c r="E38" t="n">
-        <v>882.8926947117852</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F38" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7204,22 +7204,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U38" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V38" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W38" t="n">
-        <v>2057.295728843236</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X38" t="n">
-        <v>2013.546485980902</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y38" t="n">
-        <v>2013.546485980902</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018223</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U40" t="n">
-        <v>728.1289842064342</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C41" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D41" t="n">
         <v>1268.68094731003</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V41" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W41" t="n">
-        <v>2057.295728843236</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X41" t="n">
-        <v>2045.420119349963</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y41" t="n">
-        <v>1655.280787374151</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="42">
@@ -7466,67 +7466,67 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I42" t="n">
+        <v>53.94298182036423</v>
+      </c>
+      <c r="J42" t="n">
         <v>53.94298182036445</v>
       </c>
-      <c r="J42" t="n">
-        <v>129.2001442204943</v>
-      </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U42" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V42" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W42" t="n">
         <v>1572.325111207638</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761945</v>
+        <v>500.820796875036</v>
       </c>
       <c r="C43" t="n">
-        <v>520.9725150767609</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="D43" t="n">
-        <v>370.8558756644252</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>331.8846139471291</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>162.8848136854615</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036445</v>
@@ -7599,22 +7599,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1626.94664591678</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="C44" t="n">
-        <v>1626.94664591678</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D44" t="n">
-        <v>1268.68094731003</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E44" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
         <v>2642.120401548716</v>
@@ -7678,7 +7678,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
         <v>2169.72394915887</v>
@@ -7687,13 +7687,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1626.94664591678</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X44" t="n">
-        <v>1626.94664591678</v>
+        <v>1465.195303554219</v>
       </c>
       <c r="Y44" t="n">
-        <v>1626.94664591678</v>
+        <v>1465.195303554219</v>
       </c>
     </row>
     <row r="45">
@@ -7703,67 +7703,67 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C46" t="n">
         <v>348.7460229006679</v>
@@ -7794,19 +7794,19 @@
         <v>200.8329293182748</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7815,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
         <v>579.9823256406182</v>
       </c>
       <c r="S46" t="n">
-        <v>579.9823256406182</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="T46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="U46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="V46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="W46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="X46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="Y46" t="n">
-        <v>352.67413830922</v>
+        <v>517.6822058285749</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>386.6967662831607</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>375.9044444444757</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
-        <v>259.9387816449951</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>357.6782446390199</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868109</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>418.2905476243738</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>257.8867691953441</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938572</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9020,7 +9020,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,31 +22546,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>138.1711093023382</v>
+        <v>192.3884445891958</v>
       </c>
       <c r="C2" t="n">
-        <v>120.7101594098652</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>174.9152965868808</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G2" t="n">
-        <v>170.7252358559294</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
-        <v>339.3235460419765</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>209.9064962068211</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>10.69576364311372</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>148.9413660216818</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>208.6835142066282</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0311969618593</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3444713639914</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22628,7 +22628,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,13 +22640,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3356148920818</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.1591249337519</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.12455904281175</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>99.6672001609758</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.5363898835276</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1328769967189</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>7.132250799777211</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.6608109389445</v>
+        <v>123.3973950460205</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9843543597988</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.1682702466266</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.2512431493756</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>92.89079271141465</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>21.49978743611831</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,28 +22746,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.920177260816417</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>85.60728995481479</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>176.9955073465141</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>223.9011423785076</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9172826158254</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3186679929276</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>149.4414326714929</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>415.2102214038314</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
-        <v>338.5273214908784</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22837,10 +22837,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>193.7439267194915</v>
+        <v>301.8181508768923</v>
       </c>
     </row>
     <row r="6">
@@ -22862,31 +22862,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>107.2272105435991</v>
       </c>
       <c r="E6" t="n">
-        <v>139.7184861309021</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>161.8582038473137</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839141</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>63.45830508392203</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7682732010226</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>106.5773279611251</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>163.6373884726768</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>139.005434824964</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>110.0814249536981</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23114,13 +23114,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>50.17947915721936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,25 +23220,25 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>251.4602480397295</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23314,19 +23314,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>286.0348948128437</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>324.9505676218549</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -23469,19 +23469,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>69.82361682150338</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>70.24793523570082</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
         <v>151.9313162448613</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>173.8958227127297</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,10 +23673,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23706,13 +23706,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>96.2516047562942</v>
+        <v>62.85042113331616</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,13 +23740,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>330.0913328404447</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.53450764830093</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23910,10 +23910,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,10 +23934,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R19" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>212.1455389500189</v>
@@ -23946,19 +23946,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>72.13083137729308</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>266.1177335230245</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>148.6486801908815</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>87.00133556471241</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24150,7 +24150,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,25 +24174,25 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S22" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>202.7480640677911</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,13 +24208,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>14.32059534349816</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24256,25 +24256,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>249.3108703167691</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
@@ -24417,7 +24417,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>165.3082678822158</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2818742419777</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>169.1950740960581</v>
       </c>
     </row>
     <row r="26">
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>37.74728150147274</v>
+        <v>261.0513488573847</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,10 +24490,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>216.4483203576578</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24609,19 +24609,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>64.16285195963708</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
         <v>45.199959188537</v>
@@ -24648,10 +24648,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>152.7129118681622</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24682,13 +24682,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>2.171188767195474</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>62.83841023258503</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24855,10 +24855,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>64.16285195963708</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
         <v>45.199959188537</v>
@@ -24885,10 +24885,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>131.8370722556805</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
@@ -24922,22 +24922,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,13 +24979,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>138.1410683710457</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>342.9261882223424</v>
       </c>
     </row>
     <row r="33">
@@ -25077,13 +25077,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>85.98862503533371</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25092,10 +25092,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>45.199959188537</v>
@@ -25125,7 +25125,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>56.93405031343804</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>32.91991300120878</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>292.3784848139588</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>85.98862503533373</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
         <v>45.199959188537</v>
@@ -25359,13 +25359,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>144.7266387637458</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>377.9102464292063</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25444,7 +25444,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>326.4193502447578</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25551,16 +25551,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25599,16 +25599,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>21.87414536972213</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>192.4108057479596</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>314.0594097868503</v>
       </c>
       <c r="X41" t="n">
-        <v>357.9742472801285</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>141.9938968421886</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>48.31847529534907</v>
       </c>
       <c r="I43" t="n">
         <v>134.9656217923382</v>
@@ -25839,7 +25839,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>111.6225506891475</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>139.6436969778787</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>163.3579868441613</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>150.468420336096</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
         <v>286.2818742419777</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>443398.51679315</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>459351.3990502442</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>469531.8577299755</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>142222.1657638405</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="C2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>150604.5581398032</v>
+        <v>141236.5716516325</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="G2" t="n">
         <v>245779.7185133939</v>
@@ -26337,16 +26337,16 @@
         <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="K2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="L2" t="n">
         <v>245779.7185133938</v>
       </c>
-      <c r="K2" t="n">
-        <v>245779.7185133938</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>245779.7185133939</v>
-      </c>
-      <c r="M2" t="n">
-        <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
@@ -26355,7 +26355,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85498.77860120904</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
-        <v>23645.34018189539</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14295.33970214116</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>394217.2929137604</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63988.37154589876</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
-        <v>4807.454491750106</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3268.5385945815</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99215.77767884448</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.2467736288815</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>196.6176664714449</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>206.5374179011836</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48577.10433863014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>51181.37951678014</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,10 +26493,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26511,7 +26511,7 @@
         <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4195.998445420479</v>
+        <v>10784.53779661511</v>
       </c>
       <c r="C6" t="n">
-        <v>61503.72602469075</v>
+        <v>91553.96932816283</v>
       </c>
       <c r="D6" t="n">
-        <v>73254.34891165623</v>
+        <v>91553.96932816283</v>
       </c>
       <c r="E6" t="n">
-        <v>-204250.5747086549</v>
+        <v>-237417.8834666532</v>
       </c>
       <c r="F6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763427</v>
       </c>
       <c r="G6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="H6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="I6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="J6" t="n">
-        <v>125978.3466592067</v>
+        <v>132368.3479772366</v>
       </c>
       <c r="K6" t="n">
-        <v>185159.2637133553</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="L6" t="n">
-        <v>186698.179610524</v>
+        <v>195428.2905763427</v>
       </c>
       <c r="M6" t="n">
-        <v>90750.94052626094</v>
+        <v>87454.9299022847</v>
       </c>
       <c r="N6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="O6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763428</v>
       </c>
       <c r="P6" t="n">
-        <v>189966.7182051055</v>
+        <v>195428.2905763427</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912534</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26755,7 +26755,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>276.1565137023555</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26813,10 +26813,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26831,7 +26831,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.673862893242319</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>19.3395197935473</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>12.00787803233572</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>342.7224034979613</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611425</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.91447975068849</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>244.5627323611424</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
-        <v>18.67930159052449</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.9144797506886</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>398.1307590522001</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01476929806328569</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1512560737906247</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5693933635848223</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.253525711498795</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.878710098517679</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.330706004121959</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2.593359508554916</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.635322776677227</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2.123843523123063</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.594918036231644</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678708</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.3365553796171231</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.06465260227203316</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.001181543845062855</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007902271128860838</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07631930274452442</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2720738086033228</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.276043491891533</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.715797948395859</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31153,16 +31153,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.4906339916673424</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1467812203102001</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03185169810273293</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0.000519886258477687</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945165</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296706</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1992317778827147</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4683874052581232</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7697043897645381</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522114</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.038498653576677</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.013805476753246</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.936413446952977</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.8012634742900949</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5547532968795902</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553526</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1154556584646807</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612934</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0003613635632697367</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246559</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31384,22 +31384,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.42776745276012</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677233</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081218</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411507</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>8.84383625587038</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847513</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.616303794162698</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0753287494713262</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520189</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727679</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.116914878779991</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335885</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31624,19 +31624,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164377</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263571</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008305</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006208</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623704</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174389</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170847</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894685</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>9.89953440294882</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394052</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179687</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938414</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587926</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457197</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094299</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31776,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31852,7 +31852,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
@@ -31861,19 +31861,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31949,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32013,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32098,19 +32098,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32186,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32226,13 +32226,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32250,22 +32250,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S17" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I18" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
@@ -32335,19 +32335,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,13 +32408,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
@@ -32423,7 +32423,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
         <v>0.0371551145131561</v>
@@ -32469,19 +32469,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K20" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M20" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
         <v>270.9617944338304</v>
@@ -32496,13 +32496,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32542,13 +32542,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I21" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -32557,7 +32557,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
         <v>205.8702969983122</v>
@@ -32569,22 +32569,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323505</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T21" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K22" t="n">
         <v>79.14039391302239</v>
@@ -32645,16 +32645,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P22" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
@@ -32788,10 +32788,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>115.4815392304395</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33025,7 +33025,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33037,7 +33037,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N27" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O27" t="n">
         <v>193.3156655923047</v>
@@ -33046,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33262,7 +33262,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33280,10 +33280,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479577</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q30" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33499,7 +33499,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33511,13 +33511,13 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O33" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P33" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
         <v>103.7155811639065</v>
@@ -33736,10 +33736,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>61.04368814949358</v>
       </c>
       <c r="K36" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33973,7 +33973,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34210,13 +34210,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M42" t="n">
         <v>205.8702969983122</v>
@@ -34231,7 +34231,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
         <v>50.44659727034982</v>
@@ -34447,7 +34447,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34468,7 +34468,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>105.9342716247019</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2255055845852</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>221.7606597741147</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>210.5691835920705</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>153.1904304101191</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>92.68955593933616</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>127.8998415301111</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>234.0017634719808</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>244.5627323611424</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>244.5627323611424</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
-        <v>117.3425372005507</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>28.57498187926835</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M4" t="n">
-        <v>40.62237561541726</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>45.14597785598184</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
-        <v>25.52154136099265</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.930118828988702</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>134.6170405889699</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604673</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>215.5442107170015</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>251.2660748322851</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>121.9644487350302</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>204.1123577751702</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>243.8886146223321</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>233.0551918837966</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>174.4233304118708</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>110.8113448503282</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
-        <v>5.212927593424828</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.370323552522134</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>248.6418854471727</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>276.1565137023555</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>126.5450571120108</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>251.2660748322851</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>36.97916784721082</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>49.4834113647894</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>53.79631798062265</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>33.51153056421936</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>4.916638815831902</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35424,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35661,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35740,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35898,13 +35898,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35977,13 +35977,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36059,7 +36059,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K20" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M20" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O20" t="n">
         <v>406.5635087530452</v>
@@ -36205,22 +36205,22 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O21" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>242.1053372686591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36685,7 +36685,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
@@ -36694,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36928,10 +36928,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37159,13 +37159,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
         <v>173.8110948137341</v>
@@ -37384,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>60.29709682323572</v>
       </c>
       <c r="K36" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37879,7 +37879,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38116,7 +38116,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
